--- a/prepared_data/yd_artikkeli_kuviot.xlsx
+++ b/prepared_data/yd_artikkeli_kuviot.xlsx
@@ -1689,10 +1689,10 @@
         <v>24</v>
       </c>
       <c r="C2" t="n">
-        <v>338.0</v>
+        <v>345.0</v>
       </c>
       <c r="D2" t="n">
-        <v>270.0</v>
+        <v>263.0</v>
       </c>
     </row>
     <row r="3">
@@ -1703,10 +1703,10 @@
         <v>25</v>
       </c>
       <c r="C3" t="n">
-        <v>386.0</v>
+        <v>387.0</v>
       </c>
       <c r="D3" t="n">
-        <v>262.0</v>
+        <v>261.0</v>
       </c>
     </row>
     <row r="4">
@@ -1717,10 +1717,10 @@
         <v>26</v>
       </c>
       <c r="C4" t="n">
-        <v>329.0</v>
+        <v>333.0</v>
       </c>
       <c r="D4" t="n">
-        <v>259.0</v>
+        <v>255.0</v>
       </c>
     </row>
     <row r="5">
@@ -1731,10 +1731,10 @@
         <v>27</v>
       </c>
       <c r="C5" t="n">
-        <v>329.0</v>
+        <v>333.0</v>
       </c>
       <c r="D5" t="n">
-        <v>273.0</v>
+        <v>269.0</v>
       </c>
     </row>
     <row r="6">
@@ -1745,10 +1745,10 @@
         <v>28</v>
       </c>
       <c r="C6" t="n">
-        <v>340.0</v>
+        <v>342.0</v>
       </c>
       <c r="D6" t="n">
-        <v>283.0</v>
+        <v>281.0</v>
       </c>
     </row>
     <row r="7">
@@ -1759,10 +1759,10 @@
         <v>29</v>
       </c>
       <c r="C7" t="n">
-        <v>286.0</v>
+        <v>290.0</v>
       </c>
       <c r="D7" t="n">
-        <v>277.0</v>
+        <v>273.0</v>
       </c>
     </row>
     <row r="8">
@@ -1773,10 +1773,10 @@
         <v>30</v>
       </c>
       <c r="C8" t="n">
-        <v>298.0</v>
+        <v>306.0</v>
       </c>
       <c r="D8" t="n">
-        <v>261.0</v>
+        <v>253.0</v>
       </c>
     </row>
     <row r="9">
@@ -1787,10 +1787,10 @@
         <v>31</v>
       </c>
       <c r="C9" t="n">
+        <v>252.0</v>
+      </c>
+      <c r="D9" t="n">
         <v>247.0</v>
-      </c>
-      <c r="D9" t="n">
-        <v>252.0</v>
       </c>
     </row>
     <row r="10">
@@ -1801,10 +1801,10 @@
         <v>32</v>
       </c>
       <c r="C10" t="n">
-        <v>262.0</v>
+        <v>267.0</v>
       </c>
       <c r="D10" t="n">
-        <v>229.0</v>
+        <v>224.0</v>
       </c>
     </row>
     <row r="11">
@@ -1815,10 +1815,10 @@
         <v>33</v>
       </c>
       <c r="C11" t="n">
-        <v>242.0</v>
+        <v>244.0</v>
       </c>
       <c r="D11" t="n">
-        <v>184.0</v>
+        <v>182.0</v>
       </c>
     </row>
     <row r="12">
@@ -1829,10 +1829,10 @@
         <v>34</v>
       </c>
       <c r="C12" t="n">
-        <v>226.0</v>
+        <v>231.0</v>
       </c>
       <c r="D12" t="n">
-        <v>230.0</v>
+        <v>225.0</v>
       </c>
     </row>
     <row r="13">
@@ -1843,10 +1843,10 @@
         <v>35</v>
       </c>
       <c r="C13" t="n">
-        <v>249.0</v>
+        <v>253.0</v>
       </c>
       <c r="D13" t="n">
-        <v>252.0</v>
+        <v>248.0</v>
       </c>
     </row>
     <row r="14">
@@ -1857,10 +1857,10 @@
         <v>36</v>
       </c>
       <c r="C14" t="n">
-        <v>202.0</v>
+        <v>211.0</v>
       </c>
       <c r="D14" t="n">
-        <v>271.0</v>
+        <v>262.0</v>
       </c>
     </row>
     <row r="15">
@@ -1871,10 +1871,10 @@
         <v>37</v>
       </c>
       <c r="C15" t="n">
-        <v>257.0</v>
+        <v>258.0</v>
       </c>
       <c r="D15" t="n">
-        <v>276.0</v>
+        <v>275.0</v>
       </c>
     </row>
     <row r="16">
@@ -1885,10 +1885,10 @@
         <v>38</v>
       </c>
       <c r="C16" t="n">
-        <v>252.0</v>
+        <v>260.0</v>
       </c>
       <c r="D16" t="n">
-        <v>281.0</v>
+        <v>273.0</v>
       </c>
     </row>
     <row r="17">
@@ -1899,10 +1899,10 @@
         <v>39</v>
       </c>
       <c r="C17" t="n">
-        <v>207.0</v>
+        <v>211.0</v>
       </c>
       <c r="D17" t="n">
-        <v>239.0</v>
+        <v>235.0</v>
       </c>
     </row>
     <row r="18">
@@ -1913,10 +1913,10 @@
         <v>40</v>
       </c>
       <c r="C18" t="n">
-        <v>227.0</v>
+        <v>229.0</v>
       </c>
       <c r="D18" t="n">
-        <v>242.0</v>
+        <v>240.0</v>
       </c>
     </row>
     <row r="19">
@@ -1927,10 +1927,10 @@
         <v>41</v>
       </c>
       <c r="C19" t="n">
-        <v>216.0</v>
+        <v>221.0</v>
       </c>
       <c r="D19" t="n">
-        <v>310.0</v>
+        <v>305.0</v>
       </c>
     </row>
     <row r="20">
@@ -1941,10 +1941,10 @@
         <v>42</v>
       </c>
       <c r="C20" t="n">
-        <v>208.0</v>
+        <v>213.0</v>
       </c>
       <c r="D20" t="n">
-        <v>240.0</v>
+        <v>235.0</v>
       </c>
     </row>
   </sheetData>
